--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>产品</t>
   </si>
@@ -29,6 +29,12 @@
   <si>
     <t>每个用户平均费用大概为300元</t>
   </si>
+  <si>
+    <t>新人投资考虑点</t>
+  </si>
+  <si>
+    <t>收益、安全、流动性</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +46,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +57,113 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,65 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -131,37 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -169,32 +192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,187 +208,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,15 +399,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,26 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,6 +456,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,148 +504,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="213" customWidth="1"/>
@@ -1029,6 +1028,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\product\product\第一阶段课程\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075CD3B-CE53-469B-9428-BFABCF834C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66061B-76FD-4580-BE3D-CFE625692ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>产品</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>根据业务场景起名。当用户经历场景时的第一印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品分析两个流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、从产品方面分析；2、从运营方面分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司、用户、盈利、产品首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -460,6 +472,19 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\product\product\第一阶段课程\笔记\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66061B-76FD-4580-BE3D-CFE625692ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>产品</t>
   </si>
@@ -43,30 +37,34 @@
   </si>
   <si>
     <t>公司起名规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据业务场景起名。当用户经历场景时的第一印象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作slogen</t>
+  </si>
+  <si>
+    <t>面向有事/面向愿景/面向痛点/面向情怀</t>
   </si>
   <si>
     <t>竞品分析两个流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、从产品方面分析；2、从运营方面分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司、用户、盈利、产品首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,36 +73,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -112,9 +426,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -122,21 +678,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -423,26 +1023,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.2666666666667" customWidth="1"/>
     <col min="2" max="2" width="213" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -458,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -466,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -474,7 +1074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -482,42 +1082,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:2">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12270"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>产品</t>
   </si>
@@ -45,13 +45,7 @@
     <t>制作slogen</t>
   </si>
   <si>
-    <t>面向有事/面向愿景/面向痛点/面向情怀</t>
-  </si>
-  <si>
-    <t>竞品分析两个流程</t>
-  </si>
-  <si>
-    <t>1、从产品方面分析；2、从运营方面分析</t>
+    <t>面向优势/面向愿景/面向痛点/面向情怀</t>
   </si>
 </sst>
 </file>
@@ -59,12 +53,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,26 +70,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,8 +119,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,40 +135,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,43 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -216,9 +187,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +220,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,61 +358,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,103 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,45 +411,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,17 +438,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +519,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +531,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.2666666666667" customWidth="1"/>
     <col min="2" max="2" width="213" customWidth="1"/>
@@ -1082,16 +1069,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:2">
-      <c r="B7" s="1"/>
+    <row r="6" customHeight="1" spans="2:2">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\product\product\第一阶段课程\笔记\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3FE9E4-912B-4CAF-937D-412050B1E584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>产品</t>
   </si>
@@ -54,43 +48,65 @@
     <t>面向优势/面向愿景/面向痛点/面向情怀</t>
   </si>
   <si>
+    <t>心理学书</t>
+  </si>
+  <si>
     <t>《设计心理学》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心理学书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交互书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《简约至上》《don`t make me think》</t>
   </si>
   <si>
     <t>数据书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《简约至上》《don`t make me think》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>《精益数据分析》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>思维逻辑书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>《UML2面向对象分析与设计》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web信息框架设计书籍</t>
+  </si>
+  <si>
+    <t>《Web信息架构设计大型网站》</t>
+  </si>
+  <si>
+    <t>敏捷式开发</t>
+  </si>
+  <si>
+    <t>《Scrum实战——敏捷软件项目管理与开发》</t>
+  </si>
+  <si>
+    <t>SPU</t>
+  </si>
+  <si>
+    <t>(Standard Product Unit 标准产品单位)，是指商品信息聚合的最小单位。    例如：手机-&gt;苹果手机-&gt;iPhone XS-&gt;iPhone X 64G 银色，苹果6就是SPU</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>(stock keeping unit 库存量单位)，是指不可分割的最小存货单元。         例如：手机-&gt;苹果手机-&gt;iPhone XS-&gt;iPhone X 64G 银色，iPhone X 64G 银色就是SKU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,30 +115,350 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,9 +466,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -143,21 +721,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -444,26 +1066,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="152.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.2666666666667" customWidth="1"/>
+    <col min="2" max="2" width="152.45" customWidth="1"/>
+    <col min="3" max="3" width="10.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -487,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -503,69 +1125,107 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>产品</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>(stock keeping unit 库存量单位)，是指不可分割的最小存货单元。         例如：手机-&gt;苹果手机-&gt;iPhone XS-&gt;iPhone X 64G 银色，iPhone X 64G 银色就是SKU</t>
+  </si>
+  <si>
+    <t>竞品分析书</t>
+  </si>
+  <si>
+    <t>《有效竞品分析》</t>
   </si>
 </sst>
 </file>
@@ -102,9 +108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -118,6 +124,82 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -128,6 +210,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -136,16 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,97 +250,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +279,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,18 +333,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -315,13 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,127 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,26 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,7 +492,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +508,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,23 +556,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1078,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -1187,6 +1193,14 @@
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>产品</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>《有效竞品分析》</t>
+  </si>
+  <si>
+    <t>刷新和加载的区别</t>
+  </si>
+  <si>
+    <t>刷新——针对新数据，加载——针对历史数据。例如：朋友圈向下拉刷新新数据，向下拉加载历史数据</t>
   </si>
 </sst>
 </file>
@@ -107,9 +113,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -135,37 +141,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,24 +208,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,15 +255,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,44 +271,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,61 +285,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,102 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,17 +479,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,7 +494,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,32 +510,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,7 +533,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +561,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6333333333333" defaultRowHeight="20" customHeight="1" outlineLevelCol="1"/>
@@ -1201,6 +1207,14 @@
       </c>
       <c r="B14" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/第一阶段课程/笔记/扩展知识.xlsx
+++ b/第一阶段课程/笔记/扩展知识.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>产品</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>刷新——针对新数据，加载——针对历史数据。例如：朋友圈向下拉刷新新数据，向下拉加载历史数据</t>
+  </si>
+  <si>
+    <t>心理学书籍</t>
+  </si>
+  <si>
+    <t>《社会心理学》</t>
   </si>
 </sst>
 </file>
@@ -113,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -132,6 +138,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -141,60 +176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,16 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,16 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +228,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -263,16 +276,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,31 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,151 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +487,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,7 +498,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,11 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,23 +577,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,7 +1090,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -1215,6 +1221,14 @@
       </c>
       <c r="B15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
